--- a/biology/Zoologie/Hypostrymon/Hypostrymon.xlsx
+++ b/biology/Zoologie/Hypostrymon/Hypostrymon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypostrymon est un genre néotropical de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae, originaires d'Amérique.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hypostrymon a été décrit par l'entomologiste américain Harry Kendon Clench en 1961.
-Son espèce type est Thecla critola Hewitson, 1874[1].
+Son espèce type est Thecla critola Hewitson, 1874.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend 4 espèces décrites, présentes dans le Sud de l'Amérique du Nord, en Amérique centrale et dans le Nord de l'Amérique du Sud[1],[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend 4 espèces décrites, présentes dans le Sud de l'Amérique du Nord, en Amérique centrale et dans le Nord de l'Amérique du Sud :
 Hypostrymon critola  (Hewitson, 1874) — présent dans le Sud de l'Arizona et l'Ouest du Mexique,
 Hypostrymon renidens  (Draudt, 1920) — présent au Pérou,
 Hypostrymon aepeona (Draudt, 1920) — présent au Pérou,
 Hypostrymon asa (Hewitson, 1868) — présent du Guatemala au Brésil et en Guyane,
-auxquelles s'ajoutent 5 espèces non décrites[1],[2],[3].
+auxquelles s'ajoutent 5 espèces non décrites.
 </t>
         </is>
       </c>
